--- a/ShopBack_Selenium_Project/TestDataAccess/Login_data.xlsx
+++ b/ShopBack_Selenium_Project/TestDataAccess/Login_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramyasivanshylaja/Projects/ShopBack_Selenium_Project/ShopBack_Selenium_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramya\source\repos\Ramyasivan\amazon_Test_Project\ShopBack_Selenium_Project\TestDataAccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620AF58B-50CF-A64C-A890-E0CE39B08AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62CAE5E-D049-4C61-9547-8B44C5DCF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{F605F928-A615-7145-A2A1-EB0928A27FAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F605F928-A615-7145-A2A1-EB0928A27FAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,10 +39,10 @@
     <t>Login</t>
   </si>
   <si>
-    <t>ramyasivan89@gmail.com</t>
-  </si>
-  <si>
-    <t>Green_123</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -407,11 +407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202D96E9-F32A-B440-966B-A0C3582FD025}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +437,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4C1B6CC9-85C4-4E4F-930F-A7FCA9F53663}"/>
+    <hyperlink ref="B2" r:id="rId1" display="ramyasivan89@gmail.com" xr:uid="{4C1B6CC9-85C4-4E4F-930F-A7FCA9F53663}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
